--- a/input-data.xlsx
+++ b/input-data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>simbol</t>
   </si>
@@ -58,15 +58,6 @@
   </si>
   <si>
     <t>starting date</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>mandatory</t>
-  </si>
-  <si>
-    <t>currently unavailable</t>
   </si>
 </sst>
 </file>
@@ -83,18 +74,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,15 +127,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,55 +426,57 @@
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
       <c r="H2" s="3"/>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H3" s="2"/>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="7"/>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -502,7 +488,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,66 +496,60 @@
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="7"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
       <c r="G2" s="3"/>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="2"/>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" t="s">
-        <v>13</v>
-      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
